--- a/Python/result.xlsx
+++ b/Python/result.xlsx
@@ -624,151 +624,95 @@
       <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -790,151 +734,95 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15</v>
+      </c>
+      <c r="W3" t="n">
+        <v>15</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Python/result.xlsx
+++ b/Python/result.xlsx
@@ -608,221 +608,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMUNIBS10ER5</t>
+          <t>AEDFXA14NUL7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unibank OJSC</t>
+          <t>Orascom Construction PLC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AEDFXA14NUL7</t>
+          <t>AMUNIBS10ER5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orascom Construction PLC</t>
+          <t>Unibank OJSC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
         <v>11</v>
-      </c>
-      <c r="S3" t="n">
-        <v>11</v>
-      </c>
-      <c r="T3" t="n">
-        <v>11</v>
-      </c>
-      <c r="U3" t="n">
-        <v>15</v>
-      </c>
-      <c r="V3" t="n">
-        <v>15</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
